--- a/辅助总表/故事脚本1-3章(2).xlsx
+++ b/辅助总表/故事脚本1-3章(2).xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/XHCY/辅助总表/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
     <sheet name="第二章" sheetId="2" r:id="rId2"/>
     <sheet name="第三章" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2296,31 +2307,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2332,29 +2347,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2765,12 +2776,12 @@
       <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="68.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="68.1640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
@@ -2800,15 +2811,15 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="37">
+      <c r="B3" s="39">
         <v>1</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="37"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="11"/>
       <c r="H3" s="4"/>
       <c r="I3" s="6" t="s">
@@ -2816,11 +2827,11 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="37"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="11"/>
       <c r="H4" s="3" t="s">
         <v>7</v>
@@ -2830,11 +2841,11 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="37"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="11"/>
       <c r="H5" s="3" t="s">
         <v>11</v>
@@ -2844,11 +2855,11 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="37"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="11"/>
       <c r="H6" s="3" t="s">
         <v>7</v>
@@ -2858,11 +2869,11 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="37"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="11"/>
       <c r="H7" s="4"/>
       <c r="I7" s="6" t="s">
@@ -2870,11 +2881,11 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="37"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="11"/>
       <c r="H8" s="3" t="s">
         <v>11</v>
@@ -2884,11 +2895,11 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="37"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="11"/>
       <c r="H9" s="4"/>
       <c r="I9" s="9" t="s">
@@ -2896,11 +2907,11 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="37"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="11"/>
       <c r="H10" s="3" t="s">
         <v>16</v>
@@ -2910,11 +2921,11 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="37"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="11"/>
       <c r="H11" s="3" t="s">
         <v>11</v>
@@ -2924,11 +2935,11 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="37"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="11"/>
       <c r="H12" s="4"/>
       <c r="I12" s="9" t="s">
@@ -2936,11 +2947,11 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="37"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="11"/>
       <c r="H13" s="3" t="s">
         <v>11</v>
@@ -2950,30 +2961,30 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="37">
+      <c r="B14" s="39">
         <v>2</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="37"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="3" t="s">
         <v>7</v>
       </c>
@@ -2982,12 +2993,12 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="37"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="3" t="s">
         <v>24</v>
       </c>
@@ -2996,12 +3007,12 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="37"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="3" t="s">
         <v>7</v>
       </c>
@@ -3010,16 +3021,16 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="37">
+      <c r="B18" s="39">
         <v>3</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="15"/>
@@ -3028,12 +3039,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="37"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="13" t="s">
         <v>28</v>
       </c>
@@ -3042,12 +3053,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="37"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="3" t="s">
         <v>24</v>
       </c>
@@ -3056,12 +3067,12 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="37"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="3" t="s">
         <v>7</v>
       </c>
@@ -3073,7 +3084,7 @@
       <c r="B22" s="11">
         <v>4</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="19" t="s">
         <v>125</v>
       </c>
@@ -3088,16 +3099,16 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="33">
+      <c r="B23" s="36">
         <v>5</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="33" t="s">
+      <c r="C23" s="45"/>
+      <c r="D23" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33" t="s">
+      <c r="E23" s="47"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="4"/>
@@ -3106,12 +3117,12 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="34"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="3" t="s">
         <v>24</v>
       </c>
@@ -3123,7 +3134,7 @@
       <c r="B25" s="18">
         <v>6</v>
       </c>
-      <c r="C25" s="43"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="19" t="s">
         <v>128</v>
       </c>
@@ -3138,16 +3149,16 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="33">
+      <c r="B26" s="36">
         <v>7</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="33" t="s">
+      <c r="C26" s="45"/>
+      <c r="D26" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33" t="s">
+      <c r="E26" s="47"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="13" t="s">
@@ -3158,12 +3169,12 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="34"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
       <c r="H27" s="13" t="s">
         <v>91</v>
       </c>
@@ -3175,7 +3186,7 @@
       <c r="B28" s="18">
         <v>8</v>
       </c>
-      <c r="C28" s="43"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="19" t="s">
         <v>131</v>
       </c>
@@ -3190,16 +3201,16 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="33">
+      <c r="B29" s="36">
         <v>9</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="45" t="s">
+      <c r="C29" s="45"/>
+      <c r="D29" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
+      <c r="E29" s="47"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="13" t="s">
@@ -3210,12 +3221,12 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="34"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="39"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
       <c r="H30" s="13" t="s">
         <v>91</v>
       </c>
@@ -3227,27 +3238,27 @@
       <c r="B31" s="18">
         <v>10</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="47"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="23"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="34"/>
+      <c r="G31" s="37"/>
       <c r="H31" s="15"/>
       <c r="I31" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="37">
+      <c r="B32" s="39">
         <v>11</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="33" t="s">
+      <c r="C32" s="45"/>
+      <c r="D32" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37" t="s">
+      <c r="E32" s="43"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39" t="s">
         <v>25</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -3258,12 +3269,12 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="37"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="3" t="s">
         <v>7</v>
       </c>
@@ -3271,17 +3282,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B34" s="37">
+    <row r="34" spans="2:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="B34" s="39">
         <v>12</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="33" t="s">
+      <c r="C34" s="45"/>
+      <c r="D34" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37" t="s">
+      <c r="E34" s="43"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39" t="s">
         <v>25</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -3292,12 +3303,12 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="37"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
       <c r="H35" s="3" t="s">
         <v>25</v>
       </c>
@@ -3306,16 +3317,16 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="37">
+      <c r="B36" s="39">
         <v>13</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="33" t="s">
+      <c r="C36" s="45"/>
+      <c r="D36" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37" t="s">
+      <c r="E36" s="43"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39" t="s">
         <v>25</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -3326,28 +3337,28 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="37"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
       <c r="H37" s="4"/>
       <c r="I37" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="33">
+      <c r="B38" s="36">
         <v>14</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="33" t="s">
+      <c r="C38" s="45"/>
+      <c r="D38" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33" t="s">
+      <c r="E38" s="47"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36" t="s">
         <v>35</v>
       </c>
       <c r="H38" s="4"/>
@@ -3356,12 +3367,12 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="39"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
       <c r="H39" s="3" t="s">
         <v>35</v>
       </c>
@@ -3370,12 +3381,12 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="39"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
       <c r="H40" s="3" t="s">
         <v>7</v>
       </c>
@@ -3384,28 +3395,28 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="34"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
       <c r="H41" s="15"/>
       <c r="I41" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="33">
+      <c r="B42" s="36">
         <v>15</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="33" t="s">
+      <c r="C42" s="45"/>
+      <c r="D42" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33" t="s">
+      <c r="E42" s="47"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36" t="s">
         <v>104</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -3416,12 +3427,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="34"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
       <c r="H43" s="3" t="s">
         <v>7</v>
       </c>
@@ -3430,16 +3441,16 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="37">
+      <c r="B44" s="39">
         <v>16</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="33" t="s">
+      <c r="C44" s="45"/>
+      <c r="D44" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37" t="s">
+      <c r="E44" s="43"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -3450,12 +3461,12 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="37"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
       <c r="H45" s="3" t="s">
         <v>24</v>
       </c>
@@ -3464,16 +3475,16 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="37">
+      <c r="B46" s="39">
         <v>17</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="33" t="s">
+      <c r="C46" s="45"/>
+      <c r="D46" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37" t="s">
+      <c r="E46" s="43"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -3484,12 +3495,12 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="37"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
       <c r="H47" s="3" t="s">
         <v>7</v>
       </c>
@@ -3498,16 +3509,16 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="37">
+      <c r="B48" s="39">
         <v>18</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="33" t="s">
+      <c r="C48" s="45"/>
+      <c r="D48" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37" t="s">
+      <c r="E48" s="43"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39" t="s">
         <v>43</v>
       </c>
       <c r="H48" s="15"/>
@@ -3516,12 +3527,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="37"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="3" t="s">
         <v>43</v>
       </c>
@@ -3530,16 +3541,16 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="37">
+      <c r="B50" s="39">
         <v>19</v>
       </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="33" t="s">
+      <c r="C50" s="45"/>
+      <c r="D50" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37" t="s">
+      <c r="E50" s="43"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39" t="s">
         <v>43</v>
       </c>
       <c r="H50" s="3" t="s">
@@ -3550,12 +3561,12 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="37"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
       <c r="H51" s="3" t="s">
         <v>43</v>
       </c>
@@ -3564,16 +3575,16 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="33">
+      <c r="B52" s="36">
         <v>20</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="33" t="s">
+      <c r="C52" s="45"/>
+      <c r="D52" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="E52" s="35"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33" t="s">
+      <c r="E52" s="47"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36" t="s">
         <v>43</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -3584,12 +3595,12 @@
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="39"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
       <c r="H53" s="3" t="s">
         <v>43</v>
       </c>
@@ -3598,12 +3609,12 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="34"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
       <c r="H54" s="3" t="s">
         <v>80</v>
       </c>
@@ -3612,16 +3623,16 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="33">
+      <c r="B55" s="36">
         <v>21</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="33" t="s">
+      <c r="C55" s="45"/>
+      <c r="D55" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="35"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33" t="s">
+      <c r="E55" s="47"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36" t="s">
         <v>107</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -3632,12 +3643,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="34"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
       <c r="H56" s="3" t="s">
         <v>7</v>
       </c>
@@ -3646,16 +3657,16 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="33">
+      <c r="B57" s="36">
         <v>22</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="33" t="s">
+      <c r="C57" s="45"/>
+      <c r="D57" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="35"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33" t="s">
+      <c r="E57" s="47"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36" t="s">
         <v>107</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -3666,28 +3677,28 @@
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="34"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
       <c r="H58" s="15"/>
       <c r="I58" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B59" s="37">
+    <row r="59" spans="2:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="B59" s="39">
         <v>23</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="33" t="s">
+      <c r="C59" s="45"/>
+      <c r="D59" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="E59" s="38"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37" t="s">
+      <c r="E59" s="43"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39" t="s">
         <v>43</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -3698,12 +3709,12 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="37"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
       <c r="H60" s="3" t="s">
         <v>43</v>
       </c>
@@ -3712,16 +3723,16 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="37">
+      <c r="B61" s="39">
         <v>24</v>
       </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="33" t="s">
+      <c r="C61" s="45"/>
+      <c r="D61" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="E61" s="38"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37" t="s">
+      <c r="E61" s="43"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39" t="s">
         <v>42</v>
       </c>
       <c r="H61" s="3" t="s">
@@ -3732,12 +3743,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="37"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
       <c r="H62" s="3" t="s">
         <v>43</v>
       </c>
@@ -3746,12 +3757,12 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="37"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
       <c r="H63" s="3" t="s">
         <v>7</v>
       </c>
@@ -3760,16 +3771,16 @@
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="37">
+      <c r="B64" s="39">
         <v>25</v>
       </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="33" t="s">
+      <c r="C64" s="45"/>
+      <c r="D64" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="38"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37" t="s">
+      <c r="E64" s="43"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39" t="s">
         <v>43</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -3780,12 +3791,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="37"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
       <c r="H65" s="3" t="s">
         <v>43</v>
       </c>
@@ -3797,7 +3808,7 @@
       <c r="B66" s="11">
         <v>26</v>
       </c>
-      <c r="C66" s="43"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="19" t="s">
         <v>146</v>
       </c>
@@ -3810,16 +3821,16 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="33">
+      <c r="B67" s="36">
         <v>27</v>
       </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="33" t="s">
+      <c r="C67" s="45"/>
+      <c r="D67" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33" t="s">
+      <c r="E67" s="47"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36" t="s">
         <v>122</v>
       </c>
       <c r="H67" s="3" t="s">
@@ -3830,12 +3841,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="34"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
       <c r="H68" s="13" t="s">
         <v>91</v>
       </c>
@@ -3844,16 +3855,16 @@
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="33">
+      <c r="B69" s="36">
         <v>28</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="33" t="s">
+      <c r="C69" s="45"/>
+      <c r="D69" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="35"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33" t="s">
+      <c r="E69" s="47"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36" t="s">
         <v>90</v>
       </c>
       <c r="H69" s="4"/>
@@ -3862,12 +3873,12 @@
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="39"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
       <c r="H70" s="3" t="s">
         <v>116</v>
       </c>
@@ -3876,12 +3887,12 @@
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="34"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
       <c r="H71" s="3" t="s">
         <v>24</v>
       </c>
@@ -3893,7 +3904,7 @@
       <c r="B72" s="18">
         <v>29</v>
       </c>
-      <c r="C72" s="43"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="19" t="s">
         <v>151</v>
       </c>
@@ -3906,16 +3917,16 @@
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B73" s="37">
+      <c r="B73" s="39">
         <v>30</v>
       </c>
-      <c r="C73" s="43"/>
-      <c r="D73" s="33" t="s">
+      <c r="C73" s="45"/>
+      <c r="D73" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E73" s="38"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37" t="s">
+      <c r="E73" s="43"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39" t="s">
         <v>42</v>
       </c>
       <c r="H73" s="3" t="s">
@@ -3926,12 +3937,12 @@
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="37"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
       <c r="H74" s="3" t="s">
         <v>24</v>
       </c>
@@ -3940,12 +3951,12 @@
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B75" s="37"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
       <c r="H75" s="3" t="s">
         <v>7</v>
       </c>
@@ -3954,16 +3965,16 @@
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B76" s="37">
+      <c r="B76" s="39">
         <v>31</v>
       </c>
-      <c r="C76" s="43"/>
-      <c r="D76" s="33" t="s">
+      <c r="C76" s="45"/>
+      <c r="D76" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="E76" s="38"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37" t="s">
+      <c r="E76" s="43"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39" t="s">
         <v>42</v>
       </c>
       <c r="H76" s="3" t="s">
@@ -3974,12 +3985,12 @@
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="37"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
       <c r="H77" s="3" t="s">
         <v>24</v>
       </c>
@@ -3988,12 +3999,12 @@
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B78" s="37"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
       <c r="H78" s="3" t="s">
         <v>7</v>
       </c>
@@ -4002,16 +4013,16 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="37">
+      <c r="B79" s="39">
         <v>32</v>
       </c>
-      <c r="C79" s="43"/>
-      <c r="D79" s="33" t="s">
+      <c r="C79" s="45"/>
+      <c r="D79" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="E79" s="38"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37" t="s">
+      <c r="E79" s="43"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H79" s="4"/>
@@ -4020,12 +4031,12 @@
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B80" s="37"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
       <c r="H80" s="3" t="s">
         <v>24</v>
       </c>
@@ -4034,12 +4045,12 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B81" s="37"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
       <c r="H81" s="3" t="s">
         <v>7</v>
       </c>
@@ -4051,7 +4062,7 @@
       <c r="B82" s="11">
         <v>33</v>
       </c>
-      <c r="C82" s="43"/>
+      <c r="C82" s="45"/>
       <c r="D82" s="19" t="s">
         <v>156</v>
       </c>
@@ -4064,16 +4075,16 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="37">
+      <c r="B83" s="39">
         <v>34</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="33" t="s">
+      <c r="C83" s="45"/>
+      <c r="D83" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="E83" s="38"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37" t="s">
+      <c r="E83" s="43"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39" t="s">
         <v>23</v>
       </c>
       <c r="H83" s="3" t="s">
@@ -4084,12 +4095,12 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B84" s="37"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
       <c r="H84" s="3" t="s">
         <v>7</v>
       </c>
@@ -4098,16 +4109,16 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B85" s="37">
+      <c r="B85" s="39">
         <v>35</v>
       </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="33" t="s">
+      <c r="C85" s="45"/>
+      <c r="D85" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E85" s="38"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="33" t="s">
+      <c r="E85" s="43"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="36" t="s">
         <v>43</v>
       </c>
       <c r="H85" s="4"/>
@@ -4116,12 +4127,12 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B86" s="37"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="38"/>
       <c r="H86" s="3" t="s">
         <v>43</v>
       </c>
@@ -4130,16 +4141,16 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B87" s="37">
+      <c r="B87" s="39">
         <v>36</v>
       </c>
-      <c r="C87" s="43"/>
-      <c r="D87" s="39" t="s">
+      <c r="C87" s="45"/>
+      <c r="D87" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="E87" s="38"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="39"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="38"/>
       <c r="H87" s="3" t="s">
         <v>43</v>
       </c>
@@ -4148,12 +4159,12 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B88" s="37"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="34"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="37"/>
       <c r="H88" s="3" t="s">
         <v>7</v>
       </c>
@@ -4161,17 +4172,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B89" s="18">
         <v>37</v>
       </c>
-      <c r="C89" s="43"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="19" t="s">
         <v>159</v>
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="18"/>
-      <c r="G89" s="33" t="s">
+      <c r="G89" s="36" t="s">
         <v>25</v>
       </c>
       <c r="H89" s="3" t="s">
@@ -4181,17 +4192,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B90" s="37">
+    <row r="90" spans="2:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="B90" s="39">
         <v>38</v>
       </c>
-      <c r="C90" s="43"/>
-      <c r="D90" s="33" t="s">
+      <c r="C90" s="45"/>
+      <c r="D90" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="E90" s="38"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="39"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="38"/>
       <c r="H90" s="3" t="s">
         <v>25</v>
       </c>
@@ -4199,13 +4210,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B91" s="37"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="34"/>
+    <row r="91" spans="2:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="B91" s="39"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="37"/>
       <c r="H91" s="3" t="s">
         <v>25</v>
       </c>
@@ -4213,17 +4224,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B92" s="37">
+    <row r="92" spans="2:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="B92" s="39">
         <v>39</v>
       </c>
-      <c r="C92" s="43"/>
-      <c r="D92" s="33" t="s">
+      <c r="C92" s="45"/>
+      <c r="D92" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="E92" s="38"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37" t="s">
+      <c r="E92" s="43"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39" t="s">
         <v>35</v>
       </c>
       <c r="H92" s="3" t="s">
@@ -4234,12 +4245,12 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B93" s="37"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
       <c r="H93" s="3" t="s">
         <v>25</v>
       </c>
@@ -4248,12 +4259,12 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B94" s="37"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
       <c r="H94" s="3" t="s">
         <v>7</v>
       </c>
@@ -4262,16 +4273,16 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B95" s="37">
+      <c r="B95" s="39">
         <v>40</v>
       </c>
-      <c r="C95" s="43"/>
-      <c r="D95" s="33" t="s">
+      <c r="C95" s="45"/>
+      <c r="D95" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="E95" s="38"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37" t="s">
+      <c r="E95" s="43"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39" t="s">
         <v>25</v>
       </c>
       <c r="H95" s="3" t="s">
@@ -4282,12 +4293,12 @@
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B96" s="37"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
       <c r="H96" s="3" t="s">
         <v>25</v>
       </c>
@@ -4296,12 +4307,12 @@
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="37"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
       <c r="H97" s="3" t="s">
         <v>24</v>
       </c>
@@ -4310,12 +4321,12 @@
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B98" s="37"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
       <c r="H98" s="3" t="s">
         <v>7</v>
       </c>
@@ -4324,16 +4335,16 @@
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="37">
+      <c r="B99" s="39">
         <v>41</v>
       </c>
-      <c r="C99" s="43"/>
-      <c r="D99" s="33" t="s">
+      <c r="C99" s="45"/>
+      <c r="D99" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="E99" s="38"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37" t="s">
+      <c r="E99" s="43"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39" t="s">
         <v>164</v>
       </c>
       <c r="H99" s="3" t="s">
@@ -4343,13 +4354,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B100" s="37"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
+    <row r="100" spans="2:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="B100" s="39"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
       <c r="H100" s="3" t="s">
         <v>164</v>
       </c>
@@ -4365,16 +4376,137 @@
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="C3:C13"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="F3:F13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="G85:G88"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="C14:C100"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D95:D98"/>
     <mergeCell ref="D3:D13"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="D18:D21"/>
@@ -4399,137 +4531,16 @@
     <mergeCell ref="B73:B75"/>
     <mergeCell ref="E73:E75"/>
     <mergeCell ref="F73:F75"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="C14:C100"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="G85:G88"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C3:C13"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="F3:F13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D83:D84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4545,21 +4556,21 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9" style="30"/>
-    <col min="4" max="4" width="9" style="30"/>
-    <col min="6" max="6" width="66.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="30"/>
+    <col min="4" max="4" width="8.83203125" style="30"/>
+    <col min="6" max="6" width="66.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="33" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -4570,13 +4581,13 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="49">
+      <c r="B3" s="53">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="53" t="s">
         <v>248</v>
       </c>
       <c r="E3" s="27"/>
@@ -4585,9 +4596,9 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
       <c r="E4" t="s">
         <v>43</v>
       </c>
@@ -4596,9 +4607,9 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" t="s">
         <v>24</v>
       </c>
@@ -4607,13 +4618,13 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="50">
+      <c r="B6" s="51">
         <v>2</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E6" t="s">
@@ -4624,22 +4635,22 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="50"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="27"/>
       <c r="F7" s="26" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="50">
+      <c r="B8" s="51">
         <v>3</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="52" t="s">
         <v>395</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E8" t="s">
@@ -4650,9 +4661,9 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="50"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="51"/>
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -4661,13 +4672,13 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="50">
+      <c r="B10" s="51">
         <v>4</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E10" t="s">
@@ -4678,9 +4689,9 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="50"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="51"/>
       <c r="E11" t="s">
         <v>43</v>
       </c>
@@ -4689,13 +4700,13 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="50">
+      <c r="B12" s="51">
         <v>5</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="51" t="s">
         <v>286</v>
       </c>
       <c r="E12" s="27"/>
@@ -4704,9 +4715,9 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="50"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" t="s">
         <v>178</v>
       </c>
@@ -4730,13 +4741,13 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="50">
+      <c r="B15" s="51">
         <v>7</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="51" t="s">
         <v>286</v>
       </c>
       <c r="E15" t="s">
@@ -4747,9 +4758,9 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="51"/>
       <c r="E16" t="s">
         <v>24</v>
       </c>
@@ -4758,22 +4769,22 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="50"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="27"/>
       <c r="F17" s="26" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="50">
+      <c r="B18" s="51">
         <v>8</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="52" t="s">
         <v>401</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E18" t="s">
@@ -4784,9 +4795,9 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="51"/>
       <c r="E19" t="s">
         <v>172</v>
       </c>
@@ -4794,14 +4805,14 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B20" s="50">
+    <row r="20" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B20" s="51">
         <v>9</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E20" t="s">
@@ -4811,10 +4822,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B21" s="50"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="50"/>
+    <row r="21" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="51"/>
       <c r="E21" t="s">
         <v>172</v>
       </c>
@@ -4823,13 +4834,13 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="50">
+      <c r="B22" s="51">
         <v>10</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E22" t="s">
@@ -4839,10 +4850,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B23" s="50"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="50"/>
+    <row r="23" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="51"/>
       <c r="E23" t="s">
         <v>172</v>
       </c>
@@ -4850,14 +4861,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B24" s="50">
+    <row r="24" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B24" s="51">
         <v>11</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E24" t="s">
@@ -4868,9 +4879,9 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="50"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="51"/>
       <c r="E25" t="s">
         <v>24</v>
       </c>
@@ -4879,13 +4890,13 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="50">
+      <c r="B26" s="51">
         <v>12</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E26" t="s">
@@ -4895,10 +4906,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B27" s="50"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="50"/>
+    <row r="27" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="51"/>
       <c r="E27" t="s">
         <v>7</v>
       </c>
@@ -4907,13 +4918,13 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="50">
+      <c r="B28" s="51">
         <v>13</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="52" t="s">
         <v>406</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E28" t="s">
@@ -4924,9 +4935,9 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="50"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="51"/>
       <c r="E29" t="s">
         <v>24</v>
       </c>
@@ -4934,14 +4945,14 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B30" s="50">
+    <row r="30" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B30" s="51">
         <v>14</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="52" t="s">
         <v>407</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="51" t="s">
         <v>238</v>
       </c>
       <c r="E30" s="28" t="s">
@@ -4952,22 +4963,22 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="50"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="27"/>
       <c r="F31" s="26" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="50">
+      <c r="B32" s="51">
         <v>15</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="52" t="s">
         <v>408</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="51" t="s">
         <v>238</v>
       </c>
       <c r="E32" s="28" t="s">
@@ -4978,9 +4989,9 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="50"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="28" t="s">
         <v>7</v>
       </c>
@@ -4989,13 +5000,13 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="50">
+      <c r="B34" s="51">
         <v>16</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="52" t="s">
         <v>409</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="51" t="s">
         <v>286</v>
       </c>
       <c r="E34" s="27"/>
@@ -5004,9 +5015,9 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="50"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="50"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="28" t="s">
         <v>178</v>
       </c>
@@ -5015,9 +5026,9 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="50"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="50"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="28" t="s">
         <v>24</v>
       </c>
@@ -5026,13 +5037,13 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="50">
+      <c r="B37" s="51">
         <v>17</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="52" t="s">
         <v>410</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="51" t="s">
         <v>286</v>
       </c>
       <c r="E37" s="28" t="s">
@@ -5043,9 +5054,9 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="50"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="28" t="s">
         <v>172</v>
       </c>
@@ -5053,14 +5064,14 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B39" s="50">
+    <row r="39" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B39" s="51">
         <v>18</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="52" t="s">
         <v>411</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>286</v>
       </c>
       <c r="E39" s="28" t="s">
@@ -5071,9 +5082,9 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="50"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="50"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="28" t="s">
         <v>172</v>
       </c>
@@ -5082,9 +5093,9 @@
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="50"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="50"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="28" t="s">
         <v>7</v>
       </c>
@@ -5108,13 +5119,13 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="50">
+      <c r="B43" s="51">
         <v>20</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="52" t="s">
         <v>413</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E43" s="28" t="s">
@@ -5125,9 +5136,9 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="50"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="50"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="28" t="s">
         <v>7</v>
       </c>
@@ -5136,13 +5147,13 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="50">
+      <c r="B45" s="51">
         <v>21</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="52" t="s">
         <v>414</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E45" s="28" t="s">
@@ -5153,22 +5164,22 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="50"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="27"/>
       <c r="F46" s="26" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B47" s="50">
+      <c r="B47" s="51">
         <v>22</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="52" t="s">
         <v>415</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="51" t="s">
         <v>238</v>
       </c>
       <c r="E47" s="28" t="s">
@@ -5179,9 +5190,9 @@
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="50"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="28" t="s">
         <v>7</v>
       </c>
@@ -5190,13 +5201,13 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="50">
+      <c r="B49" s="51">
         <v>23</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="52" t="s">
         <v>416</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="51" t="s">
         <v>240</v>
       </c>
       <c r="E49" s="27"/>
@@ -5205,9 +5216,9 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="50"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="28" t="s">
         <v>215</v>
       </c>
@@ -5216,9 +5227,9 @@
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" s="50"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="50"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="51"/>
       <c r="E51" s="28" t="s">
         <v>217</v>
       </c>
@@ -5227,13 +5238,13 @@
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" s="50">
+      <c r="B52" s="51">
         <v>24</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="52" t="s">
         <v>417</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="51" t="s">
         <v>240</v>
       </c>
       <c r="E52" s="27"/>
@@ -5242,9 +5253,9 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B53" s="50"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="50"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="28" t="s">
         <v>215</v>
       </c>
@@ -5253,9 +5264,9 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="50"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="50"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="28" t="s">
         <v>24</v>
       </c>
@@ -5263,14 +5274,14 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B55" s="50">
+    <row r="55" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B55" s="51">
         <v>25</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="52" t="s">
         <v>418</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="51" t="s">
         <v>240</v>
       </c>
       <c r="E55" s="28" t="s">
@@ -5281,9 +5292,9 @@
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B56" s="50"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="50"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="28" t="s">
         <v>7</v>
       </c>
@@ -5292,13 +5303,13 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B57" s="50">
+      <c r="B57" s="51">
         <v>26</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="C57" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="51" t="s">
         <v>240</v>
       </c>
       <c r="E57" s="28" t="s">
@@ -5309,9 +5320,9 @@
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B58" s="50"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="50"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="28" t="s">
         <v>172</v>
       </c>
@@ -5320,9 +5331,9 @@
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B59" s="50"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="28" t="s">
         <v>7</v>
       </c>
@@ -5331,13 +5342,13 @@
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="50">
+      <c r="B60" s="51">
         <v>27</v>
       </c>
-      <c r="C60" s="48" t="s">
+      <c r="C60" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="51" t="s">
         <v>238</v>
       </c>
       <c r="E60" s="27"/>
@@ -5346,9 +5357,9 @@
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B61" s="50"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="28" t="s">
         <v>43</v>
       </c>
@@ -5357,9 +5368,9 @@
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B62" s="50"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="50"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="51"/>
       <c r="E62" s="28" t="s">
         <v>7</v>
       </c>
@@ -5368,13 +5379,13 @@
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="50">
+      <c r="B63" s="51">
         <v>28</v>
       </c>
-      <c r="C63" s="48" t="s">
+      <c r="C63" s="52" t="s">
         <v>423</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" s="51" t="s">
         <v>263</v>
       </c>
       <c r="E63" s="27"/>
@@ -5383,9 +5394,9 @@
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B64" s="50"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="50"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="51"/>
       <c r="E64" s="28" t="s">
         <v>230</v>
       </c>
@@ -5394,9 +5405,9 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B65" s="50"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="50"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="51"/>
       <c r="E65" s="28" t="s">
         <v>7</v>
       </c>
@@ -5420,13 +5431,13 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B67" s="50">
+      <c r="B67" s="51">
         <v>30</v>
       </c>
-      <c r="C67" s="48" t="s">
+      <c r="C67" s="52" t="s">
         <v>424</v>
       </c>
-      <c r="D67" s="50" t="s">
+      <c r="D67" s="51" t="s">
         <v>263</v>
       </c>
       <c r="E67" s="28" t="s">
@@ -5437,18 +5448,18 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B68" s="50"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="50"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="51"/>
       <c r="E68" s="27"/>
       <c r="F68" s="26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="50"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="50"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="51"/>
       <c r="E69" s="28" t="s">
         <v>235</v>
       </c>
@@ -5457,13 +5468,13 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B70" s="50">
+      <c r="B70" s="51">
         <v>31</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="52" t="s">
         <v>425</v>
       </c>
-      <c r="D70" s="50" t="s">
+      <c r="D70" s="51" t="s">
         <v>238</v>
       </c>
       <c r="E70" s="28" t="s">
@@ -5474,9 +5485,9 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B71" s="50"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="50"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="51"/>
       <c r="E71" s="28" t="s">
         <v>242</v>
       </c>
@@ -5485,13 +5496,13 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B72" s="50">
+      <c r="B72" s="51">
         <v>32</v>
       </c>
-      <c r="C72" s="48" t="s">
+      <c r="C72" s="52" t="s">
         <v>426</v>
       </c>
-      <c r="D72" s="50" t="s">
+      <c r="D72" s="51" t="s">
         <v>240</v>
       </c>
       <c r="E72" s="27"/>
@@ -5500,9 +5511,9 @@
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B73" s="50"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="50"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="51"/>
       <c r="E73" s="28" t="s">
         <v>240</v>
       </c>
@@ -5511,9 +5522,9 @@
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B74" s="50"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="50"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="51"/>
       <c r="E74" s="28" t="s">
         <v>242</v>
       </c>
@@ -5522,13 +5533,13 @@
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B75" s="50">
+      <c r="B75" s="51">
         <v>33</v>
       </c>
-      <c r="C75" s="48" t="s">
+      <c r="C75" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="51" t="s">
         <v>240</v>
       </c>
       <c r="E75" s="28" t="s">
@@ -5539,9 +5550,9 @@
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B76" s="50"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="50"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="51"/>
       <c r="E76" s="28" t="s">
         <v>240</v>
       </c>
@@ -5550,13 +5561,13 @@
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B77" s="50">
+      <c r="B77" s="51">
         <v>34</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C77" s="52" t="s">
         <v>430</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E77" s="28" t="s">
@@ -5567,9 +5578,9 @@
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B78" s="50"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="50"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="51"/>
       <c r="E78" s="28" t="s">
         <v>238</v>
       </c>
@@ -5578,13 +5589,13 @@
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B79" s="50">
+      <c r="B79" s="51">
         <v>35</v>
       </c>
-      <c r="C79" s="48" t="s">
+      <c r="C79" s="52" t="s">
         <v>431</v>
       </c>
-      <c r="D79" s="50" t="s">
+      <c r="D79" s="51" t="s">
         <v>251</v>
       </c>
       <c r="E79" s="28" t="s">
@@ -5595,9 +5606,9 @@
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B80" s="50"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="50"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="51"/>
       <c r="E80" s="28" t="s">
         <v>251</v>
       </c>
@@ -5606,22 +5617,22 @@
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B81" s="50"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="50"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="51"/>
       <c r="E81" s="27"/>
       <c r="F81" s="26" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B82" s="50">
+      <c r="B82" s="51">
         <v>36</v>
       </c>
-      <c r="C82" s="48" t="s">
+      <c r="C82" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="D82" s="50" t="s">
+      <c r="D82" s="51" t="s">
         <v>238</v>
       </c>
       <c r="E82" t="s">
@@ -5632,9 +5643,9 @@
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B83" s="50"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="50"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="51"/>
       <c r="E83" t="s">
         <v>242</v>
       </c>
@@ -5643,13 +5654,13 @@
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B84" s="50">
+      <c r="B84" s="51">
         <v>37</v>
       </c>
-      <c r="C84" s="48" t="s">
+      <c r="C84" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="D84" s="50" t="s">
+      <c r="D84" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E84" t="s">
@@ -5660,9 +5671,9 @@
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B85" s="50"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="50"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="51"/>
       <c r="E85" t="s">
         <v>242</v>
       </c>
@@ -5671,13 +5682,13 @@
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B86" s="50">
+      <c r="B86" s="51">
         <v>38</v>
       </c>
-      <c r="C86" s="48" t="s">
+      <c r="C86" s="52" t="s">
         <v>432</v>
       </c>
-      <c r="D86" s="50" t="s">
+      <c r="D86" s="51" t="s">
         <v>240</v>
       </c>
       <c r="E86" s="27"/>
@@ -5686,9 +5697,9 @@
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B87" s="50"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="50"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="51"/>
       <c r="E87" t="s">
         <v>248</v>
       </c>
@@ -5697,9 +5708,9 @@
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B88" s="50"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="50"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="51"/>
       <c r="E88" t="s">
         <v>240</v>
       </c>
@@ -5707,14 +5718,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B89" s="50">
+    <row r="89" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B89" s="51">
         <v>39</v>
       </c>
-      <c r="C89" s="48" t="s">
+      <c r="C89" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="51" t="s">
         <v>240</v>
       </c>
       <c r="E89" t="s">
@@ -5725,9 +5736,9 @@
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B90" s="50"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="50"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="51"/>
       <c r="E90" t="s">
         <v>242</v>
       </c>
@@ -5736,13 +5747,13 @@
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B91" s="50">
+      <c r="B91" s="51">
         <v>40</v>
       </c>
-      <c r="C91" s="48" t="s">
+      <c r="C91" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="51" t="s">
         <v>263</v>
       </c>
       <c r="E91" s="27"/>
@@ -5751,9 +5762,9 @@
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B92" s="50"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="50"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="51"/>
       <c r="E92" t="s">
         <v>263</v>
       </c>
@@ -5762,9 +5773,9 @@
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B93" s="50"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="50"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="51"/>
       <c r="E93" t="s">
         <v>242</v>
       </c>
@@ -5787,14 +5798,14 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B95" s="50">
+    <row r="95" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B95" s="51">
         <v>42</v>
       </c>
-      <c r="C95" s="48" t="s">
+      <c r="C95" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="51" t="s">
         <v>263</v>
       </c>
       <c r="E95" t="s">
@@ -5805,22 +5816,22 @@
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B96" s="50"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="50"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="51"/>
       <c r="E96" s="27"/>
       <c r="F96" s="26" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B97" s="50">
+      <c r="B97" s="51">
         <v>43</v>
       </c>
-      <c r="C97" s="48" t="s">
+      <c r="C97" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="D97" s="50" t="s">
+      <c r="D97" s="51" t="s">
         <v>248</v>
       </c>
       <c r="E97" t="s">
@@ -5831,9 +5842,9 @@
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B98" s="50"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="50"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="51"/>
       <c r="E98" s="28" t="s">
         <v>240</v>
       </c>
@@ -5842,13 +5853,13 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B99" s="50">
+      <c r="B99" s="51">
         <v>44</v>
       </c>
-      <c r="C99" s="48" t="s">
+      <c r="C99" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="D99" s="50" t="s">
+      <c r="D99" s="51" t="s">
         <v>235</v>
       </c>
       <c r="E99" t="s">
@@ -5859,9 +5870,9 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B100" s="50"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="50"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="51"/>
       <c r="E100" t="s">
         <v>238</v>
       </c>
@@ -5870,13 +5881,13 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B101" s="50">
+      <c r="B101" s="51">
         <v>45</v>
       </c>
-      <c r="C101" s="48" t="s">
+      <c r="C101" s="52" t="s">
         <v>440</v>
       </c>
-      <c r="D101" s="50" t="s">
+      <c r="D101" s="51" t="s">
         <v>235</v>
       </c>
       <c r="E101" t="s">
@@ -5887,22 +5898,22 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B102" s="50"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="50"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="51"/>
       <c r="E102" s="27"/>
       <c r="F102" s="26" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B103" s="50">
+      <c r="B103" s="51">
         <v>46</v>
       </c>
-      <c r="C103" s="48" t="s">
+      <c r="C103" s="52" t="s">
         <v>441</v>
       </c>
-      <c r="D103" s="50" t="s">
+      <c r="D103" s="51" t="s">
         <v>238</v>
       </c>
       <c r="E103" t="s">
@@ -5913,9 +5924,9 @@
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B104" s="50"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="50"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="51"/>
       <c r="E104" t="s">
         <v>240</v>
       </c>
@@ -5924,13 +5935,13 @@
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B105" s="50">
+      <c r="B105" s="51">
         <v>47</v>
       </c>
-      <c r="C105" s="48" t="s">
+      <c r="C105" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="D105" s="50" t="s">
+      <c r="D105" s="51" t="s">
         <v>251</v>
       </c>
       <c r="E105" s="27"/>
@@ -5938,10 +5949,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B106" s="50"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="50"/>
+    <row r="106" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B106" s="51"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="51"/>
       <c r="E106" t="s">
         <v>251</v>
       </c>
@@ -5950,22 +5961,22 @@
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B107" s="50"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="50"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="51"/>
       <c r="E107" s="27"/>
       <c r="F107" s="26" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B108" s="50">
+      <c r="B108" s="51">
         <v>48</v>
       </c>
-      <c r="C108" s="48" t="s">
+      <c r="C108" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="D108" s="50" t="s">
+      <c r="D108" s="51" t="s">
         <v>240</v>
       </c>
       <c r="E108" t="s">
@@ -5976,9 +5987,9 @@
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B109" s="50"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="50"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="51"/>
       <c r="E109" s="28" t="s">
         <v>240</v>
       </c>
@@ -5986,10 +5997,10 @@
         <v>281</v>
       </c>
     </row>
-    <row r="110" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B110" s="50"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="50"/>
+    <row r="110" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B110" s="51"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="51"/>
       <c r="E110" s="28" t="s">
         <v>248</v>
       </c>
@@ -5998,13 +6009,13 @@
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B111" s="50">
+      <c r="B111" s="51">
         <v>49</v>
       </c>
-      <c r="C111" s="48" t="s">
+      <c r="C111" s="52" t="s">
         <v>444</v>
       </c>
-      <c r="D111" s="50" t="s">
+      <c r="D111" s="51" t="s">
         <v>238</v>
       </c>
       <c r="E111" s="28" t="s">
@@ -6015,9 +6026,9 @@
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B112" s="50"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="50"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="51"/>
       <c r="E112" s="28" t="s">
         <v>242</v>
       </c>
@@ -6027,88 +6038,39 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
@@ -6129,39 +6091,88 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6174,24 +6185,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B72" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="4" width="9" style="30"/>
-    <col min="6" max="6" width="70.375" style="10" customWidth="1"/>
+    <col min="2" max="4" width="8.83203125" style="30"/>
+    <col min="6" max="6" width="70.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="33" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -6202,13 +6213,13 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="49">
+      <c r="B3" s="53">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="53" t="s">
         <v>445</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="53" t="s">
         <v>446</v>
       </c>
       <c r="E3" s="27"/>
@@ -6217,9 +6228,9 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
       <c r="E4" t="s">
         <v>43</v>
       </c>
@@ -6228,9 +6239,9 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" t="s">
         <v>24</v>
       </c>
@@ -6239,9 +6250,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="28" t="s">
         <v>7</v>
       </c>
@@ -6250,13 +6261,13 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="50">
+      <c r="B7" s="51">
         <v>2</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="51" t="s">
         <v>448</v>
       </c>
       <c r="E7" s="27"/>
@@ -6265,9 +6276,9 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="28" t="s">
         <v>292</v>
       </c>
@@ -6276,9 +6287,9 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="28" t="s">
         <v>24</v>
       </c>
@@ -6287,9 +6298,9 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="28" t="s">
         <v>43</v>
       </c>
@@ -6297,14 +6308,14 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B11" s="50">
+    <row r="11" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B11" s="51">
         <v>3</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="51" t="s">
         <v>448</v>
       </c>
       <c r="E11" s="28" t="s">
@@ -6315,9 +6326,9 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="28" t="s">
         <v>292</v>
       </c>
@@ -6326,13 +6337,13 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="50">
+      <c r="B13" s="51">
         <v>4</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E13" s="27"/>
@@ -6341,9 +6352,9 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="28" t="s">
         <v>299</v>
       </c>
@@ -6367,13 +6378,13 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="50">
+      <c r="B16" s="51">
         <v>6</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="51" t="s">
         <v>453</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E16" s="28" t="s">
@@ -6384,9 +6395,9 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="28" t="s">
         <v>7</v>
       </c>
@@ -6395,13 +6406,13 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="50">
+      <c r="B18" s="51">
         <v>7</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="51" t="s">
         <v>454</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E18" s="28" t="s">
@@ -6412,31 +6423,31 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="27"/>
       <c r="F19" s="26" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="27"/>
       <c r="F20" s="26" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="50">
+      <c r="B21" s="51">
         <v>8</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="51" t="s">
         <v>456</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E21" s="28" t="s">
@@ -6447,9 +6458,9 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="28" t="s">
         <v>7</v>
       </c>
@@ -6458,13 +6469,13 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="50">
+      <c r="B23" s="51">
         <v>9</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E23" s="28" t="s">
@@ -6475,9 +6486,9 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="28" t="s">
         <v>7</v>
       </c>
@@ -6486,13 +6497,13 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="50">
+      <c r="B25" s="51">
         <v>10</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="51" t="s">
         <v>490</v>
       </c>
       <c r="E25" s="28" t="s">
@@ -6503,9 +6514,9 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="28" t="s">
         <v>7</v>
       </c>
@@ -6514,13 +6525,13 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="50">
+      <c r="B27" s="51">
         <v>11</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="51" t="s">
         <v>490</v>
       </c>
       <c r="E27" s="28" t="s">
@@ -6531,9 +6542,9 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="28" t="s">
         <v>7</v>
       </c>
@@ -6542,9 +6553,9 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="28" t="s">
         <v>310</v>
       </c>
@@ -6553,13 +6564,13 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="50">
+      <c r="B30" s="51">
         <v>12</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="51" t="s">
         <v>460</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E30" s="27"/>
@@ -6567,10 +6578,10 @@
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+    <row r="31" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="28" t="s">
         <v>299</v>
       </c>
@@ -6579,22 +6590,22 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="27"/>
       <c r="F32" s="26" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="50">
+      <c r="B33" s="51">
         <v>13</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="51" t="s">
         <v>461</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E33" s="28" t="s">
@@ -6605,9 +6616,9 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="28" t="s">
         <v>7</v>
       </c>
@@ -6615,14 +6626,14 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B35" s="50">
+    <row r="35" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B35" s="51">
         <v>14</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E35" s="28" t="s">
@@ -6633,9 +6644,9 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="28" t="s">
         <v>299</v>
       </c>
@@ -6644,9 +6655,9 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="28" t="s">
         <v>299</v>
       </c>
@@ -6655,13 +6666,13 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="50">
+      <c r="B38" s="51">
         <v>15</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="51" t="s">
         <v>463</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E38" s="28" t="s">
@@ -6672,9 +6683,9 @@
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="28" t="s">
         <v>299</v>
       </c>
@@ -6683,13 +6694,13 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="50">
+      <c r="B40" s="51">
         <v>16</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E40" s="28" t="s">
@@ -6700,9 +6711,9 @@
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="28" t="s">
         <v>310</v>
       </c>
@@ -6711,13 +6722,13 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="50">
+      <c r="B42" s="51">
         <v>17</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="51" t="s">
         <v>465</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E42" s="28" t="s">
@@ -6728,9 +6739,9 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="28" t="s">
         <v>310</v>
       </c>
@@ -6738,14 +6749,14 @@
         <v>329</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B44" s="50">
+    <row r="44" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B44" s="51">
         <v>18</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E44" s="28" t="s">
@@ -6756,9 +6767,9 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="28" t="s">
         <v>299</v>
       </c>
@@ -6767,13 +6778,13 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="50">
+      <c r="B46" s="51">
         <v>19</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="51" t="s">
         <v>467</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="51" t="s">
         <v>446</v>
       </c>
       <c r="E46" s="28" t="s">
@@ -6784,9 +6795,9 @@
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="28" t="s">
         <v>24</v>
       </c>
@@ -6795,9 +6806,9 @@
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="28" t="s">
         <v>335</v>
       </c>
@@ -6805,14 +6816,14 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B49" s="50">
+    <row r="49" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B49" s="51">
         <v>20</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="51" t="s">
         <v>468</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="51" t="s">
         <v>446</v>
       </c>
       <c r="E49" s="28" t="s">
@@ -6823,9 +6834,9 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="28" t="s">
         <v>7</v>
       </c>
@@ -6834,13 +6845,13 @@
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" s="50">
+      <c r="B51" s="51">
         <v>21</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="51" t="s">
         <v>492</v>
       </c>
       <c r="E51" s="28" t="s">
@@ -6851,22 +6862,22 @@
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="27"/>
       <c r="F52" s="26" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B53" s="50">
+    <row r="53" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B53" s="51">
         <v>22</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="51" t="s">
         <v>470</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="51" t="s">
         <v>492</v>
       </c>
       <c r="E53" s="28" t="s">
@@ -6876,10 +6887,10 @@
         <v>342</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+    <row r="54" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="28" t="s">
         <v>338</v>
       </c>
@@ -6887,14 +6898,14 @@
         <v>343</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B55" s="50">
+    <row r="55" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B55" s="51">
         <v>23</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="51" t="s">
         <v>471</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="51" t="s">
         <v>492</v>
       </c>
       <c r="E55" s="28" t="s">
@@ -6905,9 +6916,9 @@
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="28" t="s">
         <v>7</v>
       </c>
@@ -6916,13 +6927,13 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B57" s="50">
+      <c r="B57" s="51">
         <v>24</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="51" t="s">
         <v>490</v>
       </c>
       <c r="E57" s="28" t="s">
@@ -6933,9 +6944,9 @@
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="28" t="s">
         <v>349</v>
       </c>
@@ -6944,13 +6955,13 @@
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B59" s="50">
+      <c r="B59" s="51">
         <v>25</v>
       </c>
-      <c r="C59" s="50" t="s">
+      <c r="C59" s="51" t="s">
         <v>473</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" s="51" t="s">
         <v>492</v>
       </c>
       <c r="E59" s="28" t="s">
@@ -6961,31 +6972,31 @@
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="31"/>
       <c r="F60" s="32" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="27"/>
       <c r="F61" s="32" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B62" s="50">
+      <c r="B62" s="51">
         <v>26</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="51" t="s">
         <v>474</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="51" t="s">
         <v>490</v>
       </c>
       <c r="E62" s="28" t="s">
@@ -6996,9 +7007,9 @@
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
       <c r="E63" s="28" t="s">
         <v>351</v>
       </c>
@@ -7007,9 +7018,9 @@
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
       <c r="E64" s="28" t="s">
         <v>347</v>
       </c>
@@ -7018,13 +7029,13 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B65" s="50">
+      <c r="B65" s="51">
         <v>27</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="51" t="s">
         <v>475</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D65" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E65" s="28" t="s">
@@ -7035,9 +7046,9 @@
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
       <c r="E66" s="28" t="s">
         <v>351</v>
       </c>
@@ -7045,10 +7056,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
+    <row r="67" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
       <c r="E67" s="28" t="s">
         <v>356</v>
       </c>
@@ -7057,22 +7068,22 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="52"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="34"/>
       <c r="F68" s="26" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="50">
+      <c r="B69" s="51">
         <v>28</v>
       </c>
-      <c r="C69" s="50" t="s">
+      <c r="C69" s="51" t="s">
         <v>476</v>
       </c>
-      <c r="D69" s="50" t="s">
+      <c r="D69" s="51" t="s">
         <v>489</v>
       </c>
       <c r="E69" s="28" t="s">
@@ -7083,9 +7094,9 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
       <c r="E70" s="28" t="s">
         <v>347</v>
       </c>
@@ -7094,22 +7105,22 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
       <c r="E71" s="27"/>
       <c r="F71" s="26" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B72" s="50">
+      <c r="B72" s="51">
         <v>29</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C72" s="51" t="s">
         <v>477</v>
       </c>
-      <c r="D72" s="50" t="s">
+      <c r="D72" s="51" t="s">
         <v>489</v>
       </c>
       <c r="E72" s="28" t="s">
@@ -7120,9 +7131,9 @@
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
       <c r="E73" s="28" t="s">
         <v>351</v>
       </c>
@@ -7131,13 +7142,13 @@
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B74" s="50">
+      <c r="B74" s="51">
         <v>30</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="51" t="s">
         <v>478</v>
       </c>
-      <c r="D74" s="50" t="s">
+      <c r="D74" s="51" t="s">
         <v>490</v>
       </c>
       <c r="E74" s="27"/>
@@ -7146,9 +7157,9 @@
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
       <c r="E75" s="28" t="s">
         <v>347</v>
       </c>
@@ -7157,9 +7168,9 @@
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
       <c r="E76" s="28" t="s">
         <v>371</v>
       </c>
@@ -7168,9 +7179,9 @@
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
       <c r="E77" s="28" t="s">
         <v>351</v>
       </c>
@@ -7194,13 +7205,13 @@
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B79" s="50">
+      <c r="B79" s="51">
         <v>32</v>
       </c>
-      <c r="C79" s="50" t="s">
+      <c r="C79" s="51" t="s">
         <v>480</v>
       </c>
-      <c r="D79" s="50" t="s">
+      <c r="D79" s="51" t="s">
         <v>490</v>
       </c>
       <c r="E79" s="28" t="s">
@@ -7211,9 +7222,9 @@
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
       <c r="E80" s="28" t="s">
         <v>347</v>
       </c>
@@ -7222,13 +7233,13 @@
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B81" s="50">
+      <c r="B81" s="51">
         <v>33</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="C81" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E81" s="27"/>
@@ -7237,9 +7248,9 @@
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
       <c r="E82" s="28" t="s">
         <v>356</v>
       </c>
@@ -7248,22 +7259,22 @@
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B83" s="50"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
       <c r="E83" s="27"/>
       <c r="F83" s="26" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B84" s="50">
+      <c r="B84" s="51">
         <v>34</v>
       </c>
-      <c r="C84" s="50" t="s">
+      <c r="C84" s="51" t="s">
         <v>481</v>
       </c>
-      <c r="D84" s="50" t="s">
+      <c r="D84" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E84" s="28" t="s">
@@ -7274,9 +7285,9 @@
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B85" s="50"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
       <c r="E85" s="28" t="s">
         <v>364</v>
       </c>
@@ -7285,13 +7296,13 @@
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B86" s="50">
+      <c r="B86" s="51">
         <v>35</v>
       </c>
-      <c r="C86" s="50" t="s">
+      <c r="C86" s="51" t="s">
         <v>483</v>
       </c>
-      <c r="D86" s="50" t="s">
+      <c r="D86" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E86" s="28" t="s">
@@ -7302,9 +7313,9 @@
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B87" s="50"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
       <c r="E87" s="28" t="s">
         <v>356</v>
       </c>
@@ -7328,13 +7339,13 @@
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B89" s="50">
+      <c r="B89" s="51">
         <v>37</v>
       </c>
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="51" t="s">
         <v>485</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="51" t="s">
         <v>446</v>
       </c>
       <c r="E89" s="28" t="s">
@@ -7345,9 +7356,9 @@
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
       <c r="E90" s="28" t="s">
         <v>346</v>
       </c>
@@ -7356,13 +7367,13 @@
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B91" s="50">
+      <c r="B91" s="51">
         <v>38</v>
       </c>
-      <c r="C91" s="50" t="s">
+      <c r="C91" s="51" t="s">
         <v>486</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="51" t="s">
         <v>489</v>
       </c>
       <c r="E91" s="28" t="s">
@@ -7373,9 +7384,9 @@
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B92" s="50"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
       <c r="E92" s="28" t="s">
         <v>351</v>
       </c>
@@ -7384,13 +7395,13 @@
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B93" s="50">
+      <c r="B93" s="51">
         <v>39</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C93" s="51" t="s">
         <v>487</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D93" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E93" s="28" t="s">
@@ -7401,9 +7412,9 @@
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B94" s="50"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
       <c r="E94" s="28" t="s">
         <v>351</v>
       </c>
@@ -7412,13 +7423,13 @@
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B95" s="50">
+      <c r="B95" s="51">
         <v>40</v>
       </c>
-      <c r="C95" s="50" t="s">
+      <c r="C95" s="51" t="s">
         <v>488</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="51" t="s">
         <v>450</v>
       </c>
       <c r="E95" s="28" t="s">
@@ -7428,10 +7439,10 @@
         <v>390</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B96" s="50"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
+    <row r="96" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
       <c r="E96" s="28" t="s">
         <v>356</v>
       </c>
@@ -7441,57 +7452,48 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
@@ -7510,51 +7512,75 @@
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="B91:B92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>